--- a/regression_results.xlsx
+++ b/regression_results.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="My funny table" sheetId="3" state="visible" r:id="rId1"/>
-    <sheet name="Regression1" sheetId="24" state="visible" r:id="rId2"/>
-    <sheet name="Regression2" sheetId="25" state="visible" r:id="rId3"/>
+    <sheet name="Regression1" sheetId="34" state="visible" r:id="rId2"/>
+    <sheet name="Regression2" sheetId="35" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
